--- a/capiq_data/in_process_data/IQ40485464.xlsx
+++ b/capiq_data/in_process_data/IQ40485464.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3389787-649A-422F-A378-217E081D63D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1B8CC3-813E-4BFC-9EEC-AA0A28A12317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"322559c9-33f5-4837-8bf3-8ac7c7b40fb7"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e0b9d6c9-4e05-40b0-8be2-a796bdb38034"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$45</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$45</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$45</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$45</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$45</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$45</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$45</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$45</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$45</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$45</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$45</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$45</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$45</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$45</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$45</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$45</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$45</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$45</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$45</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$45</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$45</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$45</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$45</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$45</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$45</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$45</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +742,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>40268</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-7.0229999999999997</v>
+        <v>-3.7989999999999999</v>
       </c>
       <c r="D2">
-        <v>20.614999999999998</v>
+        <v>11.587</v>
       </c>
       <c r="E2">
-        <v>8.0239999999999991</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.2010000000000001</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="G2">
-        <v>52.956000000000003</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>59.503999999999998</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.5209999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.3360000000000003</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,40 +778,40 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="N2">
-        <v>13.202999999999999</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>21.023</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.9029999999999996</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="Q2">
-        <v>-6.4059999999999997</v>
+        <v>22.302</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>40268</v>
       </c>
       <c r="S2">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>38.481000000000002</v>
+        <v>13.627000000000001</v>
       </c>
       <c r="U2">
-        <v>39.993000000000002</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-5.5309999999999997</v>
+        <v>-5.0090000000000003</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-2.1000000000000001E-2</v>
+        <v>27.774999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +820,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-7.0229999999999997</v>
+        <v>-3.7989999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>40359</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-9.2889999999999997</v>
+        <v>-4.851</v>
       </c>
       <c r="D3">
-        <v>18.068999999999999</v>
+        <v>10.769</v>
       </c>
       <c r="E3">
-        <v>7.84</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.6480000000000001</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="G3">
-        <v>44.987000000000002</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>54.834000000000003</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>6.6929999999999996</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.0970000000000004</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +861,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.587999999999999</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>25.257000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>8.5809999999999995</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-9.4689999999999994</v>
+        <v>19.908999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>40359</v>
       </c>
       <c r="S3">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>29.577000000000002</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>30.524000000000001</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-9.0069999999999997</v>
+        <v>-3.641</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1.8560000000000001</v>
+        <v>24.788</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +903,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-9.2889999999999997</v>
+        <v>-4.851</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>40451</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-10.288</v>
+        <v>-6.1040000000000001</v>
       </c>
       <c r="D4">
-        <v>29.591999999999999</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="E4">
-        <v>15.634</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4.8070000000000004</v>
+        <v>2.04</v>
       </c>
       <c r="G4">
-        <v>57.912999999999997</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>72.619</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>14.329000000000001</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>20.321999999999999</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +947,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.984999999999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>49.646000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>23.151</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>5.0439999999999996</v>
+        <v>-4.4539999999999997</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>40451</v>
       </c>
       <c r="S4">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>22.972999999999999</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>35.567999999999998</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>-7.194</v>
+        <v>-3.6709999999999998</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>16.52</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +986,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>-10.288</v>
+        <v>-6.1040000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>40543</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-7.1760000000000002</v>
+        <v>-7.0229999999999997</v>
       </c>
       <c r="D5">
-        <v>44.728000000000002</v>
+        <v>20.614999999999998</v>
       </c>
       <c r="E5">
-        <v>17.568999999999999</v>
+        <v>8.0239999999999991</v>
       </c>
       <c r="F5">
-        <v>8.5429999999999993</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="G5">
-        <v>55.423999999999999</v>
+        <v>52.956000000000003</v>
       </c>
       <c r="H5">
-        <v>74.384</v>
+        <v>59.503999999999998</v>
       </c>
       <c r="I5">
-        <v>14.951000000000001</v>
+        <v>6.5209999999999999</v>
       </c>
       <c r="J5">
-        <v>22.786999999999999</v>
+        <v>4.3360000000000003</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1030,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>28.489000000000001</v>
+        <v>13.202999999999999</v>
       </c>
       <c r="O5">
-        <v>58.798999999999999</v>
+        <v>21.023</v>
       </c>
       <c r="P5">
-        <v>26.317</v>
+        <v>6.9029999999999996</v>
       </c>
       <c r="Q5">
-        <v>-9.0459999999999994</v>
+        <v>-6.4059999999999997</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>40543</v>
       </c>
       <c r="S5">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="T5">
-        <v>15.585000000000001</v>
+        <v>38.481000000000002</v>
       </c>
       <c r="U5">
-        <v>26.521999999999998</v>
+        <v>39.993000000000002</v>
       </c>
       <c r="V5">
-        <v>-7.0279999999999996</v>
+        <v>-5.5309999999999997</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1.0649999999999999</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1069,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>-7.1760000000000002</v>
+        <v>-7.0229999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>40633</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-5.5369999999999999</v>
+        <v>-9.2889999999999997</v>
       </c>
       <c r="D6">
-        <v>57.134</v>
+        <v>18.068999999999999</v>
       </c>
       <c r="E6">
-        <v>17.771000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="F6">
-        <v>13.071</v>
+        <v>2.6480000000000001</v>
       </c>
       <c r="G6">
-        <v>81.787000000000006</v>
+        <v>44.987000000000002</v>
       </c>
       <c r="H6">
-        <v>106.242</v>
+        <v>54.834000000000003</v>
       </c>
       <c r="I6">
-        <v>12.928000000000001</v>
+        <v>6.6929999999999996</v>
       </c>
       <c r="J6">
-        <v>29.35</v>
+        <v>6.0970000000000004</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,40 +1110,40 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="N6">
-        <v>52.37</v>
+        <v>14.587999999999999</v>
       </c>
       <c r="O6">
-        <v>92.268000000000001</v>
+        <v>25.257000000000001</v>
       </c>
       <c r="P6">
-        <v>33.878999999999998</v>
+        <v>8.5809999999999995</v>
       </c>
       <c r="Q6">
-        <v>25.001999999999999</v>
+        <v>-9.4689999999999994</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>40633</v>
       </c>
       <c r="S6">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="T6">
-        <v>13.974</v>
+        <v>29.577000000000002</v>
       </c>
       <c r="U6">
-        <v>51.524000000000001</v>
+        <v>30.524000000000001</v>
       </c>
       <c r="V6">
-        <v>22.861999999999998</v>
+        <v>-9.0069999999999997</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>7.0410000000000004</v>
+        <v>1.8560000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1152,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>-5.5369999999999999</v>
+        <v>-9.2889999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>40724</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-10.183999999999999</v>
+        <v>-10.288</v>
       </c>
       <c r="D7">
-        <v>42.6</v>
+        <v>29.591999999999999</v>
       </c>
       <c r="E7">
-        <v>13.446999999999999</v>
+        <v>15.634</v>
       </c>
       <c r="F7">
-        <v>9.3070000000000004</v>
+        <v>4.8070000000000004</v>
       </c>
       <c r="G7">
-        <v>73.319000000000003</v>
+        <v>57.912999999999997</v>
       </c>
       <c r="H7">
-        <v>103.375</v>
+        <v>72.619</v>
       </c>
       <c r="I7">
-        <v>24.797000000000001</v>
+        <v>14.329000000000001</v>
       </c>
       <c r="J7">
-        <v>28.437999999999999</v>
+        <v>20.321999999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1193,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-3.3180000000000001</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>58.155000000000001</v>
+        <v>23.984999999999999</v>
       </c>
       <c r="O7">
-        <v>98.826999999999998</v>
+        <v>49.646000000000001</v>
       </c>
       <c r="P7">
-        <v>33.875</v>
+        <v>23.151</v>
       </c>
       <c r="Q7">
-        <v>-19.620999999999999</v>
+        <v>5.0439999999999996</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>40724</v>
       </c>
       <c r="S7">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="T7">
-        <v>4.548</v>
+        <v>22.972999999999999</v>
       </c>
       <c r="U7">
-        <v>31.902999999999999</v>
+        <v>35.567999999999998</v>
       </c>
       <c r="V7">
-        <v>-14.071</v>
+        <v>-7.194</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-0.97299999999999998</v>
+        <v>16.52</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1235,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>-10.183999999999999</v>
+        <v>-10.288</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>40816</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-11.385</v>
+        <v>-7.1760000000000002</v>
       </c>
       <c r="D8">
-        <v>55.697000000000003</v>
+        <v>44.728000000000002</v>
       </c>
       <c r="E8">
-        <v>9.9610000000000003</v>
+        <v>17.568999999999999</v>
       </c>
       <c r="F8">
-        <v>13.601000000000001</v>
+        <v>8.5429999999999993</v>
       </c>
       <c r="G8">
-        <v>110.477</v>
+        <v>55.423999999999999</v>
       </c>
       <c r="H8">
-        <v>136.489</v>
+        <v>74.384</v>
       </c>
       <c r="I8">
-        <v>25.550999999999998</v>
+        <v>14.951000000000001</v>
       </c>
       <c r="J8">
-        <v>6.8390000000000004</v>
+        <v>22.786999999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1279,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>45.165999999999997</v>
+        <v>28.489000000000001</v>
       </c>
       <c r="O8">
-        <v>66.406000000000006</v>
+        <v>58.798999999999999</v>
       </c>
       <c r="P8">
-        <v>13.327</v>
+        <v>26.317</v>
       </c>
       <c r="Q8">
-        <v>35.066000000000003</v>
+        <v>-9.0459999999999994</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>40816</v>
       </c>
       <c r="S8">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="T8">
-        <v>70.082999999999998</v>
+        <v>15.585000000000001</v>
       </c>
       <c r="U8">
-        <v>66.968999999999994</v>
+        <v>26.521999999999998</v>
       </c>
       <c r="V8">
-        <v>-17.774000000000001</v>
+        <v>-7.0279999999999996</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>56.259</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1318,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>-11.385</v>
+        <v>-7.1760000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>40908</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-8.907</v>
+        <v>-5.5369999999999999</v>
       </c>
       <c r="D9">
-        <v>60.813000000000002</v>
+        <v>57.134</v>
       </c>
       <c r="E9">
-        <v>32.734000000000002</v>
+        <v>17.771000000000001</v>
       </c>
       <c r="F9">
-        <v>16.324000000000002</v>
+        <v>13.071</v>
       </c>
       <c r="G9">
-        <v>98.131</v>
+        <v>81.787000000000006</v>
       </c>
       <c r="H9">
-        <v>124.099</v>
+        <v>106.242</v>
       </c>
       <c r="I9">
-        <v>15.196999999999999</v>
+        <v>12.928000000000001</v>
       </c>
       <c r="J9">
-        <v>5.1029999999999998</v>
+        <v>29.35</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1362,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>38.140999999999998</v>
+        <v>52.37</v>
       </c>
       <c r="O9">
-        <v>61.570999999999998</v>
+        <v>92.268000000000001</v>
       </c>
       <c r="P9">
-        <v>11.946999999999999</v>
+        <v>33.878999999999998</v>
       </c>
       <c r="Q9">
-        <v>-25.251999999999999</v>
+        <v>25.001999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>40908</v>
       </c>
       <c r="S9">
-        <v>384</v>
+        <v>298</v>
       </c>
       <c r="T9">
-        <v>62.527999999999999</v>
+        <v>13.974</v>
       </c>
       <c r="U9">
-        <v>41.716999999999999</v>
+        <v>51.524000000000001</v>
       </c>
       <c r="V9">
-        <v>-20.428999999999998</v>
+        <v>22.861999999999998</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-1.68</v>
+        <v>7.0410000000000004</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1401,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>-8.907</v>
+        <v>-5.5369999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>40999</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-7.742</v>
+        <v>-10.183999999999999</v>
       </c>
       <c r="D10">
-        <v>57.567999999999998</v>
+        <v>42.6</v>
       </c>
       <c r="E10">
-        <v>27.742999999999999</v>
+        <v>13.446999999999999</v>
       </c>
       <c r="F10">
-        <v>16.056000000000001</v>
+        <v>9.3070000000000004</v>
       </c>
       <c r="G10">
-        <v>94.998000000000005</v>
+        <v>73.319000000000003</v>
       </c>
       <c r="H10">
-        <v>122.291</v>
+        <v>103.375</v>
       </c>
       <c r="I10">
-        <v>11.272</v>
+        <v>24.797000000000001</v>
       </c>
       <c r="J10">
-        <v>8.6769999999999996</v>
+        <v>28.437999999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,40 +1442,40 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-3.3180000000000001</v>
       </c>
       <c r="N10">
-        <v>33.854999999999997</v>
+        <v>58.155000000000001</v>
       </c>
       <c r="O10">
-        <v>65.635999999999996</v>
+        <v>98.826999999999998</v>
       </c>
       <c r="P10">
-        <v>11.061</v>
+        <v>33.875</v>
       </c>
       <c r="Q10">
-        <v>3.577</v>
+        <v>-19.620999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>40999</v>
       </c>
       <c r="S10">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="T10">
-        <v>56.655000000000001</v>
+        <v>4.548</v>
       </c>
       <c r="U10">
-        <v>45.293999999999997</v>
+        <v>31.902999999999999</v>
       </c>
       <c r="V10">
-        <v>7.6289999999999996</v>
+        <v>-14.071</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-2.17</v>
+        <v>-0.97299999999999998</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1484,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>-7.742</v>
+        <v>-10.183999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>41090</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-10.406000000000001</v>
+        <v>-11.385</v>
       </c>
       <c r="D11">
-        <v>45.576999999999998</v>
+        <v>55.697000000000003</v>
       </c>
       <c r="E11">
-        <v>24.908000000000001</v>
+        <v>9.9610000000000003</v>
       </c>
       <c r="F11">
-        <v>12.201000000000001</v>
+        <v>13.601000000000001</v>
       </c>
       <c r="G11">
-        <v>86.143000000000001</v>
+        <v>110.477</v>
       </c>
       <c r="H11">
-        <v>113.065</v>
+        <v>136.489</v>
       </c>
       <c r="I11">
-        <v>9.0570000000000004</v>
+        <v>25.550999999999998</v>
       </c>
       <c r="J11">
-        <v>8.0459999999999994</v>
+        <v>6.8390000000000004</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1525,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.63100000000000001</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>31.085999999999999</v>
+        <v>45.165999999999997</v>
       </c>
       <c r="O11">
-        <v>64.956000000000003</v>
+        <v>66.406000000000006</v>
       </c>
       <c r="P11">
-        <v>10.486000000000001</v>
+        <v>13.327</v>
       </c>
       <c r="Q11">
-        <v>-8.86</v>
+        <v>35.066000000000003</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>41090</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="T11">
-        <v>48.109000000000002</v>
+        <v>70.082999999999998</v>
       </c>
       <c r="U11">
-        <v>36.433999999999997</v>
+        <v>66.968999999999994</v>
       </c>
       <c r="V11">
-        <v>-6.9720000000000004</v>
+        <v>-17.774000000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-2.8000000000000001E-2</v>
+        <v>56.259</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1567,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>-10.406000000000001</v>
+        <v>-11.385</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>41182</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-6.3959999999999999</v>
+        <v>-8.907</v>
       </c>
       <c r="D12">
-        <v>58.167000000000002</v>
+        <v>60.813000000000002</v>
       </c>
       <c r="E12">
-        <v>32.103999999999999</v>
+        <v>32.734000000000002</v>
       </c>
       <c r="F12">
-        <v>16.283999999999999</v>
+        <v>16.324000000000002</v>
       </c>
       <c r="G12">
-        <v>86.694000000000003</v>
+        <v>98.131</v>
       </c>
       <c r="H12">
-        <v>113.348</v>
+        <v>124.099</v>
       </c>
       <c r="I12">
-        <v>10.012</v>
+        <v>15.196999999999999</v>
       </c>
       <c r="J12">
-        <v>6.5309999999999997</v>
+        <v>5.1029999999999998</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1611,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>33.982999999999997</v>
+        <v>38.140999999999998</v>
       </c>
       <c r="O12">
-        <v>69.001000000000005</v>
+        <v>61.570999999999998</v>
       </c>
       <c r="P12">
-        <v>9.8960000000000008</v>
+        <v>11.946999999999999</v>
       </c>
       <c r="Q12">
-        <v>-2.4580000000000002</v>
+        <v>-25.251999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>41182</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="T12">
-        <v>44.347000000000001</v>
+        <v>62.527999999999999</v>
       </c>
       <c r="U12">
-        <v>33.975999999999999</v>
+        <v>41.716999999999999</v>
       </c>
       <c r="V12">
-        <v>-0.99</v>
+        <v>-20.428999999999998</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0.32600000000000001</v>
+        <v>-1.68</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1650,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>-6.3959999999999999</v>
+        <v>-8.907</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>41274</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-6.3010000000000002</v>
+        <v>-7.742</v>
       </c>
       <c r="D13">
-        <v>62.045999999999999</v>
+        <v>57.567999999999998</v>
       </c>
       <c r="E13">
-        <v>34.744</v>
+        <v>27.742999999999999</v>
       </c>
       <c r="F13">
-        <v>17.434999999999999</v>
+        <v>16.056000000000001</v>
       </c>
       <c r="G13">
-        <v>94.066999999999993</v>
+        <v>94.998000000000005</v>
       </c>
       <c r="H13">
-        <v>120.31</v>
+        <v>122.291</v>
       </c>
       <c r="I13">
-        <v>15.103</v>
+        <v>11.272</v>
       </c>
       <c r="J13">
-        <v>5.8609999999999998</v>
+        <v>8.6769999999999996</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1694,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>42.423999999999999</v>
+        <v>33.854999999999997</v>
       </c>
       <c r="O13">
-        <v>79.977000000000004</v>
+        <v>65.635999999999996</v>
       </c>
       <c r="P13">
-        <v>9.2929999999999993</v>
+        <v>11.061</v>
       </c>
       <c r="Q13">
-        <v>-2.198</v>
+        <v>3.577</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>41274</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="T13">
-        <v>40.332999999999998</v>
+        <v>56.655000000000001</v>
       </c>
       <c r="U13">
-        <v>31.777999999999999</v>
+        <v>45.293999999999997</v>
       </c>
       <c r="V13">
-        <v>-0.48899999999999999</v>
+        <v>7.6289999999999996</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-0.48099999999999998</v>
+        <v>-2.17</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1733,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>-6.3010000000000002</v>
+        <v>-7.742</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>41364</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-2.81</v>
+        <v>-10.406000000000001</v>
       </c>
       <c r="D14">
-        <v>67.055999999999997</v>
+        <v>45.576999999999998</v>
       </c>
       <c r="E14">
-        <v>32.084000000000003</v>
+        <v>24.908000000000001</v>
       </c>
       <c r="F14">
-        <v>21.495999999999999</v>
+        <v>12.201000000000001</v>
       </c>
       <c r="G14">
-        <v>90.509</v>
+        <v>86.143000000000001</v>
       </c>
       <c r="H14">
-        <v>116.669</v>
+        <v>113.065</v>
       </c>
       <c r="I14">
-        <v>7.3630000000000004</v>
+        <v>9.0570000000000004</v>
       </c>
       <c r="J14">
-        <v>5.17</v>
+        <v>8.0459999999999994</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,40 +1774,40 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.63100000000000001</v>
       </c>
       <c r="N14">
-        <v>33.365000000000002</v>
+        <v>31.085999999999999</v>
       </c>
       <c r="O14">
-        <v>76.462999999999994</v>
+        <v>64.956000000000003</v>
       </c>
       <c r="P14">
-        <v>8.6769999999999996</v>
+        <v>10.486000000000001</v>
       </c>
       <c r="Q14">
-        <v>6.4119999999999999</v>
+        <v>-8.86</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>41364</v>
       </c>
       <c r="S14">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>40.206000000000003</v>
+        <v>48.109000000000002</v>
       </c>
       <c r="U14">
-        <v>38.19</v>
+        <v>36.433999999999997</v>
       </c>
       <c r="V14">
-        <v>7.5789999999999997</v>
+        <v>-6.9720000000000004</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0.125</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1816,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>-2.81</v>
+        <v>-10.406000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>41455</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-6.2359999999999998</v>
+        <v>-6.3959999999999999</v>
       </c>
       <c r="D15">
-        <v>57.58</v>
+        <v>58.167000000000002</v>
       </c>
       <c r="E15">
-        <v>28.45</v>
+        <v>32.103999999999999</v>
       </c>
       <c r="F15">
-        <v>18.655000000000001</v>
+        <v>16.283999999999999</v>
       </c>
       <c r="G15">
-        <v>86.781000000000006</v>
+        <v>86.694000000000003</v>
       </c>
       <c r="H15">
-        <v>113.16</v>
+        <v>113.348</v>
       </c>
       <c r="I15">
-        <v>9.3529999999999998</v>
+        <v>10.012</v>
       </c>
       <c r="J15">
-        <v>4.4569999999999999</v>
+        <v>6.5309999999999997</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1857,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.86599999999999999</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>34.094999999999999</v>
+        <v>33.982999999999997</v>
       </c>
       <c r="O15">
-        <v>76.721999999999994</v>
+        <v>69.001000000000005</v>
       </c>
       <c r="P15">
-        <v>7.827</v>
+        <v>9.8960000000000008</v>
       </c>
       <c r="Q15">
-        <v>1.7450000000000001</v>
+        <v>-2.4580000000000002</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>41455</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>36.438000000000002</v>
+        <v>44.347000000000001</v>
       </c>
       <c r="U15">
-        <v>39.935000000000002</v>
+        <v>33.975999999999999</v>
       </c>
       <c r="V15">
-        <v>4.2809999999999997</v>
+        <v>-0.99</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-0.41199999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +1899,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>-6.2359999999999998</v>
+        <v>-6.3959999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>41547</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-3.0310000000000001</v>
+        <v>-6.3010000000000002</v>
       </c>
       <c r="D16">
-        <v>82.004000000000005</v>
+        <v>62.045999999999999</v>
       </c>
       <c r="E16">
-        <v>46.536999999999999</v>
+        <v>34.744</v>
       </c>
       <c r="F16">
-        <v>26.832000000000001</v>
+        <v>17.434999999999999</v>
       </c>
       <c r="G16">
-        <v>105.47</v>
+        <v>94.066999999999993</v>
       </c>
       <c r="H16">
-        <v>132.083</v>
+        <v>120.31</v>
       </c>
       <c r="I16">
-        <v>19.509</v>
+        <v>15.103</v>
       </c>
       <c r="J16">
-        <v>3.726</v>
+        <v>5.8609999999999998</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +1943,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>51.956000000000003</v>
+        <v>42.423999999999999</v>
       </c>
       <c r="O16">
-        <v>94.929000000000002</v>
+        <v>79.977000000000004</v>
       </c>
       <c r="P16">
-        <v>6.5309999999999997</v>
+        <v>9.2929999999999993</v>
       </c>
       <c r="Q16">
-        <v>-2.3140000000000001</v>
+        <v>-2.198</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>41547</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>37.154000000000003</v>
+        <v>40.332999999999998</v>
       </c>
       <c r="U16">
-        <v>37.621000000000002</v>
+        <v>31.777999999999999</v>
       </c>
       <c r="V16">
-        <v>-0.14699999999999999</v>
+        <v>-0.48899999999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-6.4000000000000001E-2</v>
+        <v>-0.48099999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +1982,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>-3.0310000000000001</v>
+        <v>-6.3010000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>41639</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>0.81299999999999994</v>
+        <v>-2.81</v>
       </c>
       <c r="D17">
-        <v>99.113</v>
+        <v>67.055999999999997</v>
       </c>
       <c r="E17">
-        <v>49.27</v>
+        <v>32.084000000000003</v>
       </c>
       <c r="F17">
-        <v>32.521000000000001</v>
+        <v>21.495999999999999</v>
       </c>
       <c r="G17">
-        <v>114.489</v>
+        <v>90.509</v>
       </c>
       <c r="H17">
-        <v>144.72399999999999</v>
+        <v>116.669</v>
       </c>
       <c r="I17">
-        <v>21.992000000000001</v>
+        <v>7.3630000000000004</v>
       </c>
       <c r="J17">
-        <v>2.9729999999999999</v>
+        <v>5.17</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2026,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>57.953000000000003</v>
+        <v>33.365000000000002</v>
       </c>
       <c r="O17">
-        <v>102.262</v>
+        <v>76.462999999999994</v>
       </c>
       <c r="P17">
-        <v>5.8609999999999998</v>
+        <v>8.6769999999999996</v>
       </c>
       <c r="Q17">
-        <v>6.9160000000000004</v>
+        <v>6.4119999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>41639</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="T17">
-        <v>42.462000000000003</v>
+        <v>40.206000000000003</v>
       </c>
       <c r="U17">
-        <v>44.536999999999999</v>
+        <v>38.19</v>
       </c>
       <c r="V17">
-        <v>11.208</v>
+        <v>7.5789999999999997</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>1.587</v>
+        <v>0.125</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2065,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.81299999999999994</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>41729</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>0.40200000000000002</v>
+        <v>-6.2359999999999998</v>
       </c>
       <c r="D18">
-        <v>105.20699999999999</v>
+        <v>57.58</v>
       </c>
       <c r="E18">
-        <v>45.119</v>
+        <v>28.45</v>
       </c>
       <c r="F18">
-        <v>35.034999999999997</v>
+        <v>18.655000000000001</v>
       </c>
       <c r="G18">
-        <v>114.896</v>
+        <v>86.781000000000006</v>
       </c>
       <c r="H18">
-        <v>152.19200000000001</v>
+        <v>113.16</v>
       </c>
       <c r="I18">
-        <v>22.315999999999999</v>
+        <v>9.3529999999999998</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.4569999999999999</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,40 +2106,40 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-0.86599999999999999</v>
       </c>
       <c r="N18">
-        <v>58.706000000000003</v>
+        <v>34.094999999999999</v>
       </c>
       <c r="O18">
-        <v>105.24</v>
+        <v>76.721999999999994</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.827</v>
       </c>
       <c r="Q18">
-        <v>-2.5049999999999999</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>41729</v>
       </c>
       <c r="S18">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>46.951999999999998</v>
+        <v>36.438000000000002</v>
       </c>
       <c r="U18">
-        <v>42.031999999999996</v>
+        <v>39.935000000000002</v>
       </c>
       <c r="V18">
-        <v>8.8800000000000008</v>
+        <v>4.2809999999999997</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-4.4530000000000003</v>
+        <v>-0.41199999999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2148,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.40200000000000002</v>
+        <v>-6.2359999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>41820</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-6.32</v>
+        <v>-3.0310000000000001</v>
       </c>
       <c r="D19">
-        <v>86.653000000000006</v>
+        <v>82.004000000000005</v>
       </c>
       <c r="E19">
-        <v>45.87</v>
+        <v>46.536999999999999</v>
       </c>
       <c r="F19">
-        <v>28.024000000000001</v>
+        <v>26.832000000000001</v>
       </c>
       <c r="G19">
-        <v>114.83</v>
+        <v>105.47</v>
       </c>
       <c r="H19">
-        <v>153.49</v>
+        <v>132.083</v>
       </c>
       <c r="I19">
-        <v>30.954000000000001</v>
+        <v>19.509</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3.726</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,37 +2192,37 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>62.292000000000002</v>
+        <v>51.956000000000003</v>
       </c>
       <c r="O19">
-        <v>109.509</v>
+        <v>94.929000000000002</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.5309999999999997</v>
       </c>
       <c r="Q19">
-        <v>-14.904999999999999</v>
+        <v>-2.3140000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>41820</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>43.981000000000002</v>
+        <v>37.154000000000003</v>
       </c>
       <c r="U19">
-        <v>27.126999999999999</v>
+        <v>37.621000000000002</v>
       </c>
       <c r="V19">
-        <v>-11.497999999999999</v>
+        <v>-0.14699999999999999</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0.67700000000000005</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2231,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>-6.32</v>
+        <v>-3.0310000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>41912</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-0.60299999999999998</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="D20">
-        <v>102.093</v>
+        <v>99.113</v>
       </c>
       <c r="E20">
-        <v>67.314999999999998</v>
+        <v>49.27</v>
       </c>
       <c r="F20">
-        <v>33.027000000000001</v>
+        <v>32.521000000000001</v>
       </c>
       <c r="G20">
-        <v>141.33199999999999</v>
+        <v>114.489</v>
       </c>
       <c r="H20">
-        <v>181.298</v>
+        <v>144.72399999999999</v>
       </c>
       <c r="I20">
-        <v>34.466999999999999</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.9729999999999999</v>
       </c>
       <c r="K20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>83.688000000000002</v>
+        <v>57.953000000000003</v>
       </c>
       <c r="O20">
-        <v>132.55000000000001</v>
+        <v>102.262</v>
       </c>
       <c r="P20">
-        <v>17</v>
+        <v>5.8609999999999998</v>
       </c>
       <c r="Q20">
-        <v>4.76</v>
+        <v>6.9160000000000004</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>41912</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>48.747999999999998</v>
+        <v>42.462000000000003</v>
       </c>
       <c r="U20">
-        <v>31.887</v>
+        <v>44.536999999999999</v>
       </c>
       <c r="V20">
-        <v>-11.773</v>
+        <v>11.208</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>19.067</v>
+        <v>1.587</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2314,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>-0.60299999999999998</v>
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>42004</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>0.624</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="D21">
-        <v>102.874</v>
+        <v>105.20699999999999</v>
       </c>
       <c r="E21">
-        <v>75.322000000000003</v>
+        <v>45.119</v>
       </c>
       <c r="F21">
-        <v>31.466000000000001</v>
+        <v>35.034999999999997</v>
       </c>
       <c r="G21">
-        <v>141.61000000000001</v>
+        <v>114.896</v>
       </c>
       <c r="H21">
-        <v>182.96299999999999</v>
+        <v>152.19200000000001</v>
       </c>
       <c r="I21">
-        <v>32.707000000000001</v>
+        <v>22.315999999999999</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2358,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>79.138999999999996</v>
+        <v>58.706000000000003</v>
       </c>
       <c r="O21">
-        <v>129.99700000000001</v>
+        <v>105.24</v>
       </c>
       <c r="P21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-9.3960000000000008</v>
+        <v>-2.5049999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>42004</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="T21">
-        <v>52.966000000000001</v>
+        <v>46.951999999999998</v>
       </c>
       <c r="U21">
-        <v>22.491</v>
+        <v>42.031999999999996</v>
       </c>
       <c r="V21">
-        <v>-6.0380000000000003</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0.122</v>
+        <v>-4.4530000000000003</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2397,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.624</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>42094</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-15.782999999999999</v>
+        <v>-6.32</v>
       </c>
       <c r="D22">
-        <v>65.629000000000005</v>
+        <v>86.653000000000006</v>
       </c>
       <c r="E22">
-        <v>46.098999999999997</v>
+        <v>45.87</v>
       </c>
       <c r="F22">
-        <v>15.7</v>
+        <v>28.024000000000001</v>
       </c>
       <c r="G22">
-        <v>121.768</v>
+        <v>114.83</v>
       </c>
       <c r="H22">
-        <v>165.52799999999999</v>
+        <v>153.49</v>
       </c>
       <c r="I22">
-        <v>25.568999999999999</v>
+        <v>30.954000000000001</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2441,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>72.847999999999999</v>
+        <v>62.292000000000002</v>
       </c>
       <c r="O22">
-        <v>124.07899999999999</v>
+        <v>109.509</v>
       </c>
       <c r="P22">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>5.9610000000000003</v>
+        <v>-14.904999999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>42094</v>
       </c>
       <c r="S22">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>41.448999999999998</v>
+        <v>43.981000000000002</v>
       </c>
       <c r="U22">
-        <v>28.452000000000002</v>
+        <v>27.126999999999999</v>
       </c>
       <c r="V22">
-        <v>8.1489999999999991</v>
+        <v>-11.497999999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>0.69799999999999995</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2480,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>-15.782999999999999</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>42185</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-18.795000000000002</v>
+        <v>-0.60299999999999998</v>
       </c>
       <c r="D23">
-        <v>64.120999999999995</v>
+        <v>102.093</v>
       </c>
       <c r="E23">
-        <v>47.055999999999997</v>
+        <v>67.314999999999998</v>
       </c>
       <c r="F23">
-        <v>11.76</v>
+        <v>33.027000000000001</v>
       </c>
       <c r="G23">
-        <v>112.88500000000001</v>
+        <v>141.33199999999999</v>
       </c>
       <c r="H23">
-        <v>158.52000000000001</v>
+        <v>181.298</v>
       </c>
       <c r="I23">
-        <v>24.292999999999999</v>
+        <v>34.466999999999999</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L23">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>79.945999999999998</v>
+        <v>83.688000000000002</v>
       </c>
       <c r="O23">
-        <v>132.96</v>
+        <v>132.55000000000001</v>
       </c>
       <c r="P23">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q23">
-        <v>-15.436</v>
+        <v>4.76</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>42185</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>25.56</v>
+        <v>48.747999999999998</v>
       </c>
       <c r="U23">
-        <v>13.016</v>
+        <v>31.887</v>
       </c>
       <c r="V23">
-        <v>-15.249000000000001</v>
+        <v>-11.773</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>3.0459999999999998</v>
+        <v>19.067</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2563,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>-18.795000000000002</v>
+        <v>-0.60299999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>42277</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-16.722999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="D24">
-        <v>79.185000000000002</v>
+        <v>102.874</v>
       </c>
       <c r="E24">
-        <v>48.972999999999999</v>
+        <v>75.322000000000003</v>
       </c>
       <c r="F24">
-        <v>14.135999999999999</v>
+        <v>31.466000000000001</v>
       </c>
       <c r="G24">
-        <v>104.43600000000001</v>
+        <v>141.61000000000001</v>
       </c>
       <c r="H24">
-        <v>152.50899999999999</v>
+        <v>182.96299999999999</v>
       </c>
       <c r="I24">
-        <v>37.61</v>
+        <v>32.707000000000001</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.45</v>
+        <v>17</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2607,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>84.617000000000004</v>
+        <v>79.138999999999996</v>
       </c>
       <c r="O24">
-        <v>140.05199999999999</v>
+        <v>129.99700000000001</v>
       </c>
       <c r="P24">
-        <v>12.45</v>
+        <v>17</v>
       </c>
       <c r="Q24">
-        <v>-4.7729999999999997</v>
+        <v>-9.3960000000000008</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>42277</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>12.457000000000001</v>
+        <v>52.966000000000001</v>
       </c>
       <c r="U24">
-        <v>8.2430000000000003</v>
+        <v>22.491</v>
       </c>
       <c r="V24">
-        <v>7.258</v>
+        <v>-6.0380000000000003</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-6.9459999999999997</v>
+        <v>0.122</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2646,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>-16.722999999999999</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>42369</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-18.756</v>
+        <v>-15.782999999999999</v>
       </c>
       <c r="D25">
-        <v>88.683999999999997</v>
+        <v>65.629000000000005</v>
       </c>
       <c r="E25">
-        <v>59.481999999999999</v>
+        <v>46.098999999999997</v>
       </c>
       <c r="F25">
-        <v>15.879</v>
+        <v>15.7</v>
       </c>
       <c r="G25">
-        <v>129.88200000000001</v>
+        <v>121.768</v>
       </c>
       <c r="H25">
-        <v>176.428</v>
+        <v>165.52799999999999</v>
       </c>
       <c r="I25">
-        <v>32.551000000000002</v>
+        <v>25.568999999999999</v>
       </c>
       <c r="J25">
-        <v>22.808</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>12.45</v>
+        <v>17</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2690,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>85.567999999999998</v>
+        <v>72.847999999999999</v>
       </c>
       <c r="O25">
-        <v>166.19900000000001</v>
+        <v>124.07899999999999</v>
       </c>
       <c r="P25">
-        <v>36.454999999999998</v>
+        <v>17</v>
       </c>
       <c r="Q25">
-        <v>15.869</v>
+        <v>5.9610000000000003</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>42369</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="T25">
-        <v>10.228999999999999</v>
+        <v>41.448999999999998</v>
       </c>
       <c r="U25">
-        <v>24.111999999999998</v>
+        <v>28.452000000000002</v>
       </c>
       <c r="V25">
-        <v>-20.597000000000001</v>
+        <v>8.1489999999999991</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>38.54</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,81 +2729,81 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>-18.756</v>
+        <v>-15.782999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>42460</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-13.188000000000001</v>
+        <v>-18.795000000000002</v>
       </c>
       <c r="D26">
-        <v>90.600999999999999</v>
+        <v>64.120999999999995</v>
       </c>
       <c r="E26">
-        <v>61.018999999999998</v>
+        <v>47.055999999999997</v>
       </c>
       <c r="F26">
-        <v>16.233000000000001</v>
+        <v>11.76</v>
       </c>
       <c r="G26">
-        <v>117.864</v>
+        <v>112.88500000000001</v>
       </c>
       <c r="H26">
-        <v>163.57599999999999</v>
+        <v>158.52000000000001</v>
       </c>
       <c r="I26">
-        <v>31.696000000000002</v>
+        <v>24.292999999999999</v>
       </c>
       <c r="J26">
-        <v>20.768000000000001</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>10.1</v>
+        <v>20</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>82.772000000000006</v>
+        <v>79.945999999999998</v>
       </c>
       <c r="O26">
-        <v>162.27600000000001</v>
+        <v>132.96</v>
       </c>
       <c r="P26">
-        <v>33.9</v>
+        <v>20</v>
       </c>
       <c r="Q26">
-        <v>-6.3479999999999999</v>
+        <v>-15.436</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>42460</v>
       </c>
       <c r="S26">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1.3</v>
+        <v>25.56</v>
       </c>
       <c r="U26">
-        <v>17.763999999999999</v>
+        <v>13.016</v>
       </c>
       <c r="V26">
-        <v>-4.3650000000000002</v>
+        <v>-15.249000000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-0.26500000000000001</v>
+        <v>3.0459999999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2812,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>-13.188000000000001</v>
+        <v>-18.795000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>42551</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-23.305</v>
+        <v>-16.722999999999999</v>
       </c>
       <c r="D27">
-        <v>54.750999999999998</v>
+        <v>79.185000000000002</v>
       </c>
       <c r="E27">
-        <v>48.902999999999999</v>
+        <v>48.972999999999999</v>
       </c>
       <c r="F27">
-        <v>7.048</v>
+        <v>14.135999999999999</v>
       </c>
       <c r="G27">
-        <v>122.79900000000001</v>
+        <v>104.43600000000001</v>
       </c>
       <c r="H27">
-        <v>167.50700000000001</v>
+        <v>152.50899999999999</v>
       </c>
       <c r="I27">
-        <v>15.858000000000001</v>
+        <v>37.61</v>
       </c>
       <c r="J27">
-        <v>45.384</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>12.45</v>
       </c>
       <c r="L27">
-        <v>-10.1</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>54.628999999999998</v>
+        <v>84.617000000000004</v>
       </c>
       <c r="O27">
-        <v>160.036</v>
+        <v>140.05199999999999</v>
       </c>
       <c r="P27">
-        <v>46.881</v>
+        <v>12.45</v>
       </c>
       <c r="Q27">
-        <v>12.191000000000001</v>
+        <v>-4.7729999999999997</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>42551</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7.4710000000000001</v>
+        <v>12.457000000000001</v>
       </c>
       <c r="U27">
-        <v>29.954999999999998</v>
+        <v>8.2430000000000003</v>
       </c>
       <c r="V27">
-        <v>-24.510999999999999</v>
+        <v>7.258</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>40.585999999999999</v>
+        <v>-6.9459999999999997</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +2895,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>-23.305</v>
+        <v>-16.722999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>42643</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-12.093</v>
+        <v>-18.756</v>
       </c>
       <c r="D28">
-        <v>74.703999999999994</v>
+        <v>88.683999999999997</v>
       </c>
       <c r="E28">
-        <v>56.402999999999999</v>
+        <v>59.481999999999999</v>
       </c>
       <c r="F28">
-        <v>13.547000000000001</v>
+        <v>15.879</v>
       </c>
       <c r="G28">
-        <v>121.502</v>
+        <v>129.88200000000001</v>
       </c>
       <c r="H28">
-        <v>163.678</v>
+        <v>176.428</v>
       </c>
       <c r="I28">
-        <v>15.425000000000001</v>
+        <v>32.551000000000002</v>
       </c>
       <c r="J28">
-        <v>41.384999999999998</v>
+        <v>22.808</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>12.45</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +2939,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>63.344999999999999</v>
+        <v>85.567999999999998</v>
       </c>
       <c r="O28">
-        <v>166.06200000000001</v>
+        <v>166.19900000000001</v>
       </c>
       <c r="P28">
-        <v>47.335999999999999</v>
+        <v>36.454999999999998</v>
       </c>
       <c r="Q28">
-        <v>0.998</v>
+        <v>15.869</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>42643</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>-2.3839999999999999</v>
+        <v>10.228999999999999</v>
       </c>
       <c r="U28">
-        <v>30.952999999999999</v>
+        <v>24.111999999999998</v>
       </c>
       <c r="V28">
-        <v>0.186</v>
+        <v>-20.597000000000001</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0.14899999999999999</v>
+        <v>38.54</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +2978,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>-12.093</v>
+        <v>-18.756</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>42735</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-6.8540000000000001</v>
+        <v>-13.188000000000001</v>
       </c>
       <c r="D29">
-        <v>77.037999999999997</v>
+        <v>90.600999999999999</v>
       </c>
       <c r="E29">
-        <v>68.869</v>
+        <v>61.018999999999998</v>
       </c>
       <c r="F29">
-        <v>16.460999999999999</v>
+        <v>16.233000000000001</v>
       </c>
       <c r="G29">
-        <v>136.31700000000001</v>
+        <v>117.864</v>
       </c>
       <c r="H29">
-        <v>177.08099999999999</v>
+        <v>163.57599999999999</v>
       </c>
       <c r="I29">
-        <v>34.619999999999997</v>
+        <v>31.696000000000002</v>
       </c>
       <c r="J29">
-        <v>37.058</v>
+        <v>20.768000000000001</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3022,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>85.489000000000004</v>
+        <v>82.772000000000006</v>
       </c>
       <c r="O29">
-        <v>184.88300000000001</v>
+        <v>162.27600000000001</v>
       </c>
       <c r="P29">
-        <v>47.61</v>
+        <v>33.9</v>
       </c>
       <c r="Q29">
-        <v>-2.0750000000000002</v>
+        <v>-6.3479999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>42735</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="T29">
-        <v>-7.8019999999999996</v>
+        <v>1.3</v>
       </c>
       <c r="U29">
-        <v>28.878</v>
+        <v>17.763999999999999</v>
       </c>
       <c r="V29">
-        <v>-2.2029999999999998</v>
+        <v>-4.3650000000000002</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>4.0000000000000001E-3</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,81 +3061,81 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>-6.8540000000000001</v>
+        <v>-13.188000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>42825</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-2.94</v>
+        <v>-23.305</v>
       </c>
       <c r="D30">
-        <v>79.674000000000007</v>
+        <v>54.750999999999998</v>
       </c>
       <c r="E30">
-        <v>65.346000000000004</v>
+        <v>48.902999999999999</v>
       </c>
       <c r="F30">
-        <v>18.989000000000001</v>
+        <v>7.048</v>
       </c>
       <c r="G30">
-        <v>130.446</v>
+        <v>122.79900000000001</v>
       </c>
       <c r="H30">
-        <v>169.14699999999999</v>
+        <v>167.50700000000001</v>
       </c>
       <c r="I30">
-        <v>28.747</v>
+        <v>15.858000000000001</v>
       </c>
       <c r="J30">
-        <v>32.322000000000003</v>
+        <v>45.384</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>91.741</v>
+        <v>54.628999999999998</v>
       </c>
       <c r="O30">
-        <v>178.273</v>
+        <v>160.036</v>
       </c>
       <c r="P30">
-        <v>49.750999999999998</v>
+        <v>46.881</v>
       </c>
       <c r="Q30">
-        <v>0.26600000000000001</v>
+        <v>12.191000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>42825</v>
       </c>
       <c r="S30">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>-9.1259999999999994</v>
+        <v>7.4710000000000001</v>
       </c>
       <c r="U30">
-        <v>29.143999999999998</v>
+        <v>29.954999999999998</v>
       </c>
       <c r="V30">
-        <v>-1.9139999999999999</v>
+        <v>-24.510999999999999</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>2.5579999999999998</v>
+        <v>40.585999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,39 +3144,39 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>-2.94</v>
+        <v>-23.305</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>42916</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-5.1280000000000001</v>
+        <v>-12.093</v>
       </c>
       <c r="D31">
-        <v>69.971999999999994</v>
+        <v>74.703999999999994</v>
       </c>
       <c r="E31">
-        <v>69.518000000000001</v>
+        <v>56.402999999999999</v>
       </c>
       <c r="F31">
-        <v>18.315000000000001</v>
+        <v>13.547000000000001</v>
       </c>
       <c r="G31">
-        <v>147.85300000000001</v>
+        <v>121.502</v>
       </c>
       <c r="H31">
-        <v>212.11799999999999</v>
+        <v>163.678</v>
       </c>
       <c r="I31">
-        <v>14.087</v>
+        <v>15.425000000000001</v>
       </c>
       <c r="J31">
-        <v>36.459000000000003</v>
+        <v>41.384999999999998</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3185,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-0.77100000000000002</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>103.685</v>
+        <v>63.344999999999999</v>
       </c>
       <c r="O31">
-        <v>243.26900000000001</v>
+        <v>166.06200000000001</v>
       </c>
       <c r="P31">
-        <v>50.726999999999997</v>
+        <v>47.335999999999999</v>
       </c>
       <c r="Q31">
-        <v>24.111000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>42916</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-31.151</v>
+        <v>-2.3839999999999999</v>
       </c>
       <c r="U31">
-        <v>53.255000000000003</v>
+        <v>30.952999999999999</v>
       </c>
       <c r="V31">
-        <v>3.3610000000000002</v>
+        <v>0.186</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>21.73</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3227,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>-5.1280000000000001</v>
+        <v>-12.093</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>43008</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-3.738</v>
+        <v>-6.8540000000000001</v>
       </c>
       <c r="D32">
-        <v>75.896000000000001</v>
+        <v>77.037999999999997</v>
       </c>
       <c r="E32">
-        <v>72.322000000000003</v>
+        <v>68.869</v>
       </c>
       <c r="F32">
-        <v>22.701000000000001</v>
+        <v>16.460999999999999</v>
       </c>
       <c r="G32">
-        <v>155.37899999999999</v>
+        <v>136.31700000000001</v>
       </c>
       <c r="H32">
-        <v>218.536</v>
+        <v>177.08099999999999</v>
       </c>
       <c r="I32">
-        <v>21.895</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="J32">
-        <v>33.558999999999997</v>
+        <v>37.058</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3271,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>114.648</v>
+        <v>85.489000000000004</v>
       </c>
       <c r="O32">
-        <v>248.65100000000001</v>
+        <v>184.88300000000001</v>
       </c>
       <c r="P32">
-        <v>51.988</v>
+        <v>47.61</v>
       </c>
       <c r="Q32">
-        <v>5.2160000000000002</v>
+        <v>-2.0750000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>43008</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-30.114999999999998</v>
+        <v>-7.8019999999999996</v>
       </c>
       <c r="U32">
-        <v>58.470999999999997</v>
+        <v>28.878</v>
       </c>
       <c r="V32">
-        <v>4.08</v>
+        <v>-2.2029999999999998</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>2.0139999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3310,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>-3.738</v>
+        <v>-6.8540000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>43100</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>-3.47</v>
+        <v>-2.94</v>
       </c>
       <c r="D33">
-        <v>78.001999999999995</v>
+        <v>79.674000000000007</v>
       </c>
       <c r="E33">
-        <v>66.992999999999995</v>
+        <v>65.346000000000004</v>
       </c>
       <c r="F33">
-        <v>25.263999999999999</v>
+        <v>18.989000000000001</v>
       </c>
       <c r="G33">
-        <v>209.798</v>
+        <v>130.446</v>
       </c>
       <c r="H33">
-        <v>326.51</v>
+        <v>169.14699999999999</v>
       </c>
       <c r="I33">
-        <v>28.103000000000002</v>
+        <v>28.747</v>
       </c>
       <c r="J33">
-        <v>87.906999999999996</v>
+        <v>32.322000000000003</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3354,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>134.922</v>
+        <v>91.741</v>
       </c>
       <c r="O33">
-        <v>322.35399999999998</v>
+        <v>178.273</v>
       </c>
       <c r="P33">
-        <v>112.032</v>
+        <v>49.750999999999998</v>
       </c>
       <c r="Q33">
-        <v>57.692999999999998</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>43100</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="T33">
-        <v>4.1559999999999997</v>
+        <v>-9.1259999999999994</v>
       </c>
       <c r="U33">
-        <v>116.164</v>
+        <v>29.143999999999998</v>
       </c>
       <c r="V33">
-        <v>6.8159999999999998</v>
+        <v>-1.9139999999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>60.866</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3393,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>-3.47</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>43190</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>0.70899999999999996</v>
+        <v>-5.1280000000000001</v>
       </c>
       <c r="D34">
-        <v>92.289000000000001</v>
+        <v>69.971999999999994</v>
       </c>
       <c r="E34">
-        <v>92.453999999999994</v>
+        <v>69.518000000000001</v>
       </c>
       <c r="F34">
-        <v>28.164000000000001</v>
+        <v>18.315000000000001</v>
       </c>
       <c r="G34">
-        <v>222.30199999999999</v>
+        <v>147.85300000000001</v>
       </c>
       <c r="H34">
-        <v>339.93700000000001</v>
+        <v>212.11799999999999</v>
       </c>
       <c r="I34">
-        <v>48.793999999999997</v>
+        <v>14.087</v>
       </c>
       <c r="J34">
-        <v>81.628</v>
+        <v>36.459000000000003</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,40 +3434,40 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-0.77100000000000002</v>
       </c>
       <c r="N34">
-        <v>147.161</v>
+        <v>103.685</v>
       </c>
       <c r="O34">
-        <v>332.161</v>
+        <v>243.26900000000001</v>
       </c>
       <c r="P34">
-        <v>109.783</v>
+        <v>50.726999999999997</v>
       </c>
       <c r="Q34">
-        <v>-9.9269999999999996</v>
+        <v>24.111000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>43190</v>
       </c>
       <c r="S34">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>7.7759999999999998</v>
+        <v>-31.151</v>
       </c>
       <c r="U34">
-        <v>106.23699999999999</v>
+        <v>53.255000000000003</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>3.3610000000000002</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-3.996</v>
+        <v>21.73</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3476,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.70899999999999996</v>
+        <v>-5.1280000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>43281</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>2.7650000000000001</v>
+        <v>-3.738</v>
       </c>
       <c r="D35">
-        <v>100.15</v>
+        <v>75.896000000000001</v>
       </c>
       <c r="E35">
-        <v>95.31</v>
+        <v>72.322000000000003</v>
       </c>
       <c r="F35">
-        <v>33.338999999999999</v>
+        <v>22.701000000000001</v>
       </c>
       <c r="G35">
-        <v>195.44200000000001</v>
+        <v>155.37899999999999</v>
       </c>
       <c r="H35">
-        <v>319.25200000000001</v>
+        <v>218.536</v>
       </c>
       <c r="I35">
-        <v>52.488999999999997</v>
+        <v>21.895</v>
       </c>
       <c r="J35">
-        <v>65.406000000000006</v>
+        <v>33.558999999999997</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3517,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-44.731000000000002</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>128.74600000000001</v>
+        <v>114.648</v>
       </c>
       <c r="O35">
-        <v>305.12799999999999</v>
+        <v>248.65100000000001</v>
       </c>
       <c r="P35">
-        <v>78.409000000000006</v>
+        <v>51.988</v>
       </c>
       <c r="Q35">
-        <v>-28.15</v>
+        <v>5.2160000000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>43281</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>14.124000000000001</v>
+        <v>-30.114999999999998</v>
       </c>
       <c r="U35">
-        <v>78.087000000000003</v>
+        <v>58.470999999999997</v>
       </c>
       <c r="V35">
-        <v>17.062999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-44.421999999999997</v>
+        <v>2.0139999999999998</v>
       </c>
       <c r="Y35">
-        <v>7.8369999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>2.7650000000000001</v>
+        <v>-3.738</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>10.618</v>
+        <v>-3.47</v>
       </c>
       <c r="D36">
-        <v>134.09399999999999</v>
+        <v>78.001999999999995</v>
       </c>
       <c r="E36">
-        <v>111.437</v>
+        <v>66.992999999999995</v>
       </c>
       <c r="F36">
-        <v>45.319000000000003</v>
+        <v>25.263999999999999</v>
       </c>
       <c r="G36">
-        <v>349.851</v>
+        <v>209.798</v>
       </c>
       <c r="H36">
-        <v>481.51799999999997</v>
+        <v>326.51</v>
       </c>
       <c r="I36">
-        <v>65.989000000000004</v>
+        <v>28.103000000000002</v>
       </c>
       <c r="J36">
-        <v>99.89</v>
+        <v>87.906999999999996</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3603,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>143.613</v>
+        <v>134.922</v>
       </c>
       <c r="O36">
-        <v>364.24700000000001</v>
+        <v>322.35399999999998</v>
       </c>
       <c r="P36">
-        <v>117.245</v>
+        <v>112.032</v>
       </c>
       <c r="Q36">
-        <v>127.872</v>
+        <v>57.692999999999998</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>117.271</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="U36">
-        <v>205.959</v>
+        <v>116.164</v>
       </c>
       <c r="V36">
-        <v>14.772</v>
+        <v>6.8159999999999998</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>115.378</v>
+        <v>60.866</v>
       </c>
       <c r="Y36">
-        <v>11.305</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>10.618</v>
+        <v>-3.47</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>43465</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>31.099</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="D37">
-        <v>180.05699999999999</v>
+        <v>92.289000000000001</v>
       </c>
       <c r="E37">
-        <v>147.85900000000001</v>
+        <v>92.453999999999994</v>
       </c>
       <c r="F37">
-        <v>64.706000000000003</v>
+        <v>28.164000000000001</v>
       </c>
       <c r="G37">
-        <v>391.517</v>
+        <v>222.30199999999999</v>
       </c>
       <c r="H37">
-        <v>523.66899999999998</v>
+        <v>339.93700000000001</v>
       </c>
       <c r="I37">
-        <v>60.692</v>
+        <v>48.793999999999997</v>
       </c>
       <c r="J37">
-        <v>100.97799999999999</v>
+        <v>81.628</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3686,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>146.81899999999999</v>
+        <v>147.161</v>
       </c>
       <c r="O37">
-        <v>371.38</v>
+        <v>332.161</v>
       </c>
       <c r="P37">
-        <v>117.39700000000001</v>
+        <v>109.783</v>
       </c>
       <c r="Q37">
-        <v>-2.9129999999999998</v>
+        <v>-9.9269999999999996</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>43465</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="T37">
-        <v>152.28899999999999</v>
+        <v>7.7759999999999998</v>
       </c>
       <c r="U37">
-        <v>203.04599999999999</v>
+        <v>106.23699999999999</v>
       </c>
       <c r="V37">
-        <v>4.9610000000000003</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-3.14</v>
+        <v>-3.996</v>
       </c>
       <c r="Y37">
-        <v>10.268000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>31.099</v>
+        <v>0.70899999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>43555</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>116.666</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D38">
-        <v>210.03200000000001</v>
+        <v>100.15</v>
       </c>
       <c r="E38">
-        <v>160.46799999999999</v>
+        <v>95.31</v>
       </c>
       <c r="F38">
-        <v>77.881</v>
+        <v>33.338999999999999</v>
       </c>
       <c r="G38">
-        <v>499.65699999999998</v>
+        <v>195.44200000000001</v>
       </c>
       <c r="H38">
-        <v>713.22299999999996</v>
+        <v>319.25200000000001</v>
       </c>
       <c r="I38">
-        <v>57.473999999999997</v>
+        <v>52.488999999999997</v>
       </c>
       <c r="J38">
-        <v>102.65900000000001</v>
+        <v>65.406000000000006</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3766,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-44.731000000000002</v>
       </c>
       <c r="N38">
-        <v>199.31100000000001</v>
+        <v>128.74600000000001</v>
       </c>
       <c r="O38">
-        <v>441.01100000000002</v>
+        <v>305.12799999999999</v>
       </c>
       <c r="P38">
-        <v>118.255</v>
+        <v>78.409000000000006</v>
       </c>
       <c r="Q38">
-        <v>93.063000000000002</v>
+        <v>-28.15</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>43555</v>
       </c>
       <c r="S38">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>272.21199999999999</v>
+        <v>14.124000000000001</v>
       </c>
       <c r="U38">
-        <v>251.40899999999999</v>
+        <v>78.087000000000003</v>
       </c>
       <c r="V38">
-        <v>102.271</v>
+        <v>17.062999999999999</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-1.966</v>
+        <v>-44.421999999999997</v>
       </c>
       <c r="Y38">
-        <v>9.5419999999999998</v>
+        <v>7.8369999999999997</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>116.666</v>
+        <v>2.7650000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>43646</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>68.936000000000007</v>
+        <v>10.618</v>
       </c>
       <c r="D39">
-        <v>205.54499999999999</v>
+        <v>134.09399999999999</v>
       </c>
       <c r="E39">
-        <v>111.41200000000001</v>
+        <v>111.437</v>
       </c>
       <c r="F39">
-        <v>80.674999999999997</v>
+        <v>45.319000000000003</v>
       </c>
       <c r="G39">
-        <v>751.697</v>
+        <v>349.851</v>
       </c>
       <c r="H39">
-        <v>1030.787</v>
+        <v>481.51799999999997</v>
       </c>
       <c r="I39">
-        <v>34.537999999999997</v>
+        <v>65.989000000000004</v>
       </c>
       <c r="J39">
-        <v>295.21600000000001</v>
+        <v>99.89</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3849,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1.1479999999999999</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>233.62200000000001</v>
+        <v>143.613</v>
       </c>
       <c r="O39">
-        <v>714.58</v>
+        <v>364.24700000000001</v>
       </c>
       <c r="P39">
-        <v>410.26600000000002</v>
+        <v>117.245</v>
       </c>
       <c r="Q39">
-        <v>297.73500000000001</v>
+        <v>127.872</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>43646</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>316.20699999999999</v>
+        <v>117.271</v>
       </c>
       <c r="U39">
-        <v>549.14400000000001</v>
+        <v>205.959</v>
       </c>
       <c r="V39">
-        <v>39.222000000000001</v>
+        <v>14.772</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>262.07100000000003</v>
+        <v>115.378</v>
       </c>
       <c r="Y39">
-        <v>10.972</v>
+        <v>11.305</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>68.936000000000007</v>
+        <v>10.618</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>43738</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-47.293999999999997</v>
+        <v>31.099</v>
       </c>
       <c r="D40">
-        <v>125.538</v>
+        <v>180.05699999999999</v>
       </c>
       <c r="E40">
-        <v>105.92</v>
+        <v>147.85900000000001</v>
       </c>
       <c r="F40">
-        <v>48.387</v>
+        <v>64.706000000000003</v>
       </c>
       <c r="G40">
-        <v>757.20100000000002</v>
+        <v>391.517</v>
       </c>
       <c r="H40">
-        <v>997.92700000000002</v>
+        <v>523.66899999999998</v>
       </c>
       <c r="I40">
-        <v>24.135000000000002</v>
+        <v>60.692</v>
       </c>
       <c r="J40">
-        <v>253.17400000000001</v>
+        <v>100.97799999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +3935,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>223.523</v>
+        <v>146.81899999999999</v>
       </c>
       <c r="O40">
-        <v>627.75099999999998</v>
+        <v>371.38</v>
       </c>
       <c r="P40">
-        <v>369.21699999999998</v>
+        <v>117.39700000000001</v>
       </c>
       <c r="Q40">
-        <v>13.41</v>
+        <v>-2.9129999999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>43738</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>370.17599999999999</v>
+        <v>152.28899999999999</v>
       </c>
       <c r="U40">
-        <v>607.25400000000002</v>
+        <v>203.04599999999999</v>
       </c>
       <c r="V40">
-        <v>25.431000000000001</v>
+        <v>4.9610000000000003</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-7.5940000000000003</v>
+        <v>-3.14</v>
       </c>
       <c r="Y40">
-        <v>10.202</v>
+        <v>10.268000000000001</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-47.293999999999997</v>
+        <v>31.099</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>43830</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>39.362000000000002</v>
+        <v>116.666</v>
       </c>
       <c r="D41">
-        <v>178.50299999999999</v>
+        <v>210.03200000000001</v>
       </c>
       <c r="E41">
-        <v>139.35900000000001</v>
+        <v>160.46799999999999</v>
       </c>
       <c r="F41">
-        <v>94.980999999999995</v>
+        <v>77.881</v>
       </c>
       <c r="G41">
-        <v>850.23400000000004</v>
+        <v>499.65699999999998</v>
       </c>
       <c r="H41">
-        <v>1092.3399999999999</v>
+        <v>713.22299999999996</v>
       </c>
       <c r="I41">
-        <v>48.148000000000003</v>
+        <v>57.473999999999997</v>
       </c>
       <c r="J41">
-        <v>256.452</v>
+        <v>102.65900000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4018,377 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>256.51900000000001</v>
+        <v>199.31100000000001</v>
       </c>
       <c r="O41">
-        <v>676.13400000000001</v>
+        <v>441.01100000000002</v>
       </c>
       <c r="P41">
-        <v>376.78399999999999</v>
+        <v>118.255</v>
       </c>
       <c r="Q41">
-        <v>54.537999999999997</v>
+        <v>93.063000000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>43830</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="T41">
-        <v>416.20600000000002</v>
+        <v>272.21199999999999</v>
       </c>
       <c r="U41">
-        <v>661.79200000000003</v>
+        <v>251.40899999999999</v>
       </c>
       <c r="V41">
-        <v>67.501000000000005</v>
+        <v>102.271</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-9.1639999999999997</v>
+        <v>-1.966</v>
       </c>
       <c r="Y41">
-        <v>12.417</v>
+        <v>9.5419999999999998</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>39.362000000000002</v>
+        <v>116.666</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>43921</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>68.936000000000007</v>
+      </c>
+      <c r="D42">
+        <v>205.54499999999999</v>
+      </c>
+      <c r="E42">
+        <v>111.41200000000001</v>
+      </c>
+      <c r="F42">
+        <v>80.674999999999997</v>
+      </c>
+      <c r="G42">
+        <v>751.697</v>
+      </c>
+      <c r="H42">
+        <v>1030.787</v>
+      </c>
+      <c r="I42">
+        <v>34.537999999999997</v>
+      </c>
+      <c r="J42">
+        <v>295.21600000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-1.1479999999999999</v>
+      </c>
+      <c r="N42">
+        <v>233.62200000000001</v>
+      </c>
+      <c r="O42">
+        <v>714.58</v>
+      </c>
+      <c r="P42">
+        <v>410.26600000000002</v>
+      </c>
+      <c r="Q42">
+        <v>297.73500000000001</v>
+      </c>
+      <c r="R42">
+        <v>43921</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>316.20699999999999</v>
+      </c>
+      <c r="U42">
+        <v>549.14400000000001</v>
+      </c>
+      <c r="V42">
+        <v>39.222000000000001</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>262.07100000000003</v>
+      </c>
+      <c r="Y42">
+        <v>10.972</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>68.936000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-47.293999999999997</v>
+      </c>
+      <c r="D43">
+        <v>125.538</v>
+      </c>
+      <c r="E43">
+        <v>105.92</v>
+      </c>
+      <c r="F43">
+        <v>48.387</v>
+      </c>
+      <c r="G43">
+        <v>757.20100000000002</v>
+      </c>
+      <c r="H43">
+        <v>997.92700000000002</v>
+      </c>
+      <c r="I43">
+        <v>24.135000000000002</v>
+      </c>
+      <c r="J43">
+        <v>253.17400000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>223.523</v>
+      </c>
+      <c r="O43">
+        <v>627.75099999999998</v>
+      </c>
+      <c r="P43">
+        <v>369.21699999999998</v>
+      </c>
+      <c r="Q43">
+        <v>13.41</v>
+      </c>
+      <c r="R43">
+        <v>44012</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>370.17599999999999</v>
+      </c>
+      <c r="U43">
+        <v>607.25400000000002</v>
+      </c>
+      <c r="V43">
+        <v>25.431000000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-7.5940000000000003</v>
+      </c>
+      <c r="Y43">
+        <v>10.202</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>-47.293999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>39.362000000000002</v>
+      </c>
+      <c r="D44">
+        <v>178.50299999999999</v>
+      </c>
+      <c r="E44">
+        <v>139.35900000000001</v>
+      </c>
+      <c r="F44">
+        <v>94.980999999999995</v>
+      </c>
+      <c r="G44">
+        <v>850.23400000000004</v>
+      </c>
+      <c r="H44">
+        <v>1092.3399999999999</v>
+      </c>
+      <c r="I44">
+        <v>48.148000000000003</v>
+      </c>
+      <c r="J44">
+        <v>256.452</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>256.51900000000001</v>
+      </c>
+      <c r="O44">
+        <v>676.13400000000001</v>
+      </c>
+      <c r="P44">
+        <v>376.78399999999999</v>
+      </c>
+      <c r="Q44">
+        <v>54.537999999999997</v>
+      </c>
+      <c r="R44">
+        <v>44104</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>416.20600000000002</v>
+      </c>
+      <c r="U44">
+        <v>661.79200000000003</v>
+      </c>
+      <c r="V44">
+        <v>67.501000000000005</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-9.1639999999999997</v>
+      </c>
+      <c r="Y44">
+        <v>12.417</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>39.362000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
         <v>72.991</v>
       </c>
-      <c r="D42">
+      <c r="D45">
         <v>264.839</v>
       </c>
-      <c r="E42">
+      <c r="E45">
         <v>200.04400000000001</v>
       </c>
-      <c r="F42">
+      <c r="F45">
         <v>121.938</v>
       </c>
-      <c r="G42">
+      <c r="G45">
         <v>933.06399999999996</v>
       </c>
-      <c r="H42">
+      <c r="H45">
         <v>1200.1020000000001</v>
       </c>
-      <c r="I42">
+      <c r="I45">
         <v>72.608999999999995</v>
       </c>
-      <c r="J42">
+      <c r="J45">
         <v>4.8979999999999997</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
         <v>534.04300000000001</v>
       </c>
-      <c r="O42">
+      <c r="O45">
         <v>716.10900000000004</v>
       </c>
-      <c r="P42">
+      <c r="P45">
         <v>350.61599999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q45">
         <v>17.587</v>
       </c>
-      <c r="R42">
+      <c r="R45">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S45">
         <v>850</v>
       </c>
-      <c r="T42">
+      <c r="T45">
         <v>483.99299999999999</v>
       </c>
-      <c r="U42">
+      <c r="U45">
         <v>679.37900000000002</v>
       </c>
-      <c r="V42">
+      <c r="V45">
         <v>84.18</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
         <v>-53.634999999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y45">
         <v>15.209</v>
       </c>
-      <c r="Z42">
+      <c r="Z45">
         <v>-5.01</v>
       </c>
-      <c r="AA42">
+      <c r="AA45">
         <v>72.991</v>
       </c>
     </row>
